--- a/media/downloadData/outputX.xlsx
+++ b/media/downloadData/outputX.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,7 +389,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Z Sidi Daoved La marsa</t>
+          <t xml:space="preserve"> Z| Sidi Daoued La marsa</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -414,7 +414,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETAT DE FLUX DE TRESORERIE DE L'EXERCICE</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLOS LE 31 DECEMBRE 2014</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> {exprimé en dinars)</t>
+          <t xml:space="preserve"> (exprimeé en dinars)</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,Décembre</t>
+          <t xml:space="preserve"> 31,.Décembre</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Notes 2014</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Flux de trésorerie liés 4 exploitation</t>
+          <t xml:space="preserve"> Flux de trésorerie liés a l'exploitation</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Résultat net</t>
+          <t xml:space="preserve"> Resultat net</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 574 811</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 421 426</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Amortissements el provisions</t>
+          <t xml:space="preserve"> * Amortissements et provisions</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 173 237</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14.474</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -664,22 +664,22 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> - Stocks</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 (1 288 941) (1.336 674)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> (1 288 941)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> (1 335 674)</t>
         </is>
       </c>
     </row>
@@ -689,22 +689,22 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ~ Créances</t>
+          <t xml:space="preserve"> - Creances</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 (1.973.459) (763 734)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> (1 973 459)</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> (763 734)</t>
         </is>
       </c>
     </row>
@@ -714,22 +714,24 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> - Autres actifs</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 889 (273 134)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> (273 1
+34)</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (82 222)</t>
+          <t xml:space="preserve"> (82
+222)</t>
         </is>
       </c>
     </row>
@@ -739,12 +741,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ~ Fournisseurs et autres deties</t>
+          <t xml:space="preserve"> - Fournisseurs et autres dettes</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13 1140556 1174470</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -764,12 +766,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ~ Autres passits courants</t>
+          <t xml:space="preserve"> - Autres passifs courants</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 1232849</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -779,7 +781,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 340 394</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -799,12 +801,12 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188 683</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 114 136</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -814,7 +816,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Lranstert de charges</t>
+          <t xml:space="preserve"> * Transfert de charges</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -839,7 +841,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Ajustement</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -864,7 +866,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> de lrésorerie provenant de l'exploitation</t>
+          <t xml:space="preserve"> Flux de trésorerie provenant de |'exploitation</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -874,12 +876,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 225 398) 543270</t>
+          <t xml:space="preserve"> (225 398)</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 543270</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -914,7 +916,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Décaissement provenant de facquisition dimmobilisations</t>
+          <t xml:space="preserve"> Décaissement provenant de |'acquisition d'immobilisations</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -939,7 +941,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> corporelles</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -954,7 +956,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (39 682)</t>
+          <t xml:space="preserve"> (39 692)</t>
         </is>
       </c>
     </row>
@@ -964,7 +966,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Décalssement provenant de l'acquisition d'immobilisations</t>
+          <t xml:space="preserve"> Décaissement provenant de l'acquisition d'immobilisations</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -989,7 +991,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> financiéres</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1004,7 +1006,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> {4 60U)</t>
+          <t xml:space="preserve"> 800)</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1016,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Encaissement sur cession dimmobilisations</t>
+          <t xml:space="preserve"> Encaissement sur cession d'immobilisations</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1039,7 +1041,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mmanciéres</t>
+          <t xml:space="preserve"> financieres</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1049,10 +1051,236 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4050</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flux de trésorerie provenant des activités d'investissement</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (142 112)</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (44 492)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flux de trésorerie liés aux activités de financement</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Encaissements suite a l'emission de parts sociales</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Encaissements provenant des emprunts</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Remboursement des emprunts</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (31 706
+)</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flux de trésorerie provenant des activités de financement</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Variation de trésorerie</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (278 903)</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trésorerie au début de l'exercice</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tresorerie ala cloture de l'exercice</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/media/downloadData/outputX.xlsx
+++ b/media/downloadData/outputX.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,7 +389,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Z| Sidi Daoued La marsa</t>
+          <t xml:space="preserve"> Actifs :</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -414,22 +414,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Actils</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Notes</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> S1/12/2014</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 31/12/2013</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Actils non courants</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -464,22 +464,22 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Immobilisations incorporelles</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (exprimeé en dinars)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 372 029</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 354 310</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Amort. Immobilisations incorporelles</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -499,12 +499,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,.Décembre</t>
+          <t xml:space="preserve"> -206 446</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> -183 399</t>
         </is>
       </c>
     </row>
@@ -519,17 +519,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 165 583</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 170 911</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Flux de trésorerie liés a l'exploitation</t>
+          <t xml:space="preserve"> Immobilisations corporelles</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 5 435 008</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 5 216 052</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resultat net</t>
+          <t xml:space="preserve"> Amort. Immobilisations corporelles</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> ~4 120 407</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> “SYIS VIZ</t>
         </is>
       </c>
     </row>
@@ -589,22 +589,22 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ajustements pour :</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 42,</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 1314 601</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 1 500 079</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Amortissements et provisions</t>
+          <t xml:space="preserve"> Immobilisations financiéres</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 85 328</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 66 477</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Variation des :</t>
+          <t xml:space="preserve"> Prov. Immobilisations financiéres</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> -2 904</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> -498</t>
         </is>
       </c>
     </row>
@@ -664,22 +664,22 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Stocks</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1 288 941)</t>
+          <t xml:space="preserve"> 82 424</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1 335 674)</t>
+          <t xml:space="preserve"> 65 979</t>
         </is>
       </c>
     </row>
@@ -689,22 +689,22 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Creances</t>
+          <t xml:space="preserve"> Autres Actifs non courants</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 44</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1 973 459)</t>
+          <t xml:space="preserve"> 42 870</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (763 734)</t>
+          <t xml:space="preserve"> 38 14</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Autres actifs</t>
+          <t xml:space="preserve"> ‘Total des Actifs non courants</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -724,565 +724,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (273 1
-34)</t>
+          <t xml:space="preserve"> 1 605 478</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (82
-222)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Fournisseurs et autres dettes</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Autres passifs courants</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Autres passifs financiers</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> * Transfert de charges</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ajustement</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Flux de trésorerie provenant de |'exploitation</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (225 398)</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Flux de trésorerie liés aux activités d'investissement</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Décaissement provenant de |'acquisition d'immobilisations</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> corporelles</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (146 162)</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (39 692)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Décaissement provenant de l'acquisition d'immobilisations</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> financiéres</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 800)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Encaissement sur cession d'immobilisations</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> financieres</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Flux de trésorerie provenant des activités d'investissement</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (142 112)</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (44 492)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Flux de trésorerie liés aux activités de financement</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Encaissements suite a l'emission de parts sociales</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Encaissements provenant des emprunts</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Remboursement des emprunts</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (31 706
-)</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Flux de trésorerie provenant des activités de financement</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variation de trésorerie</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (278 903)</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Trésorerie au début de l'exercice</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tresorerie ala cloture de l'exercice</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 1595 483</t>
         </is>
       </c>
     </row>
